--- a/spliced/walkingToRunning/2023-04-03_16-59-39/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-59-39/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.392043113708496</v>
+        <v>-2.796573638916016</v>
       </c>
       <c r="B2" t="n">
-        <v>-22.07962417602539</v>
+        <v>-10.2697286605835</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.189113616943359</v>
+        <v>2.567607164382935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5.657458782196045</v>
+        <v>0.8655490875244141</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.74918365478516</v>
+        <v>-18.99405670166016</v>
       </c>
       <c r="C3" t="n">
-        <v>3.394452571868896</v>
+        <v>5.860441207885742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.341409206390381</v>
+        <v>12.034010887146</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.322525978088381</v>
+        <v>-13.59659099578857</v>
       </c>
       <c r="C4" t="n">
-        <v>2.263803243637085</v>
+        <v>12.0263729095459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.796573638916016</v>
+        <v>5.544707775115967</v>
       </c>
       <c r="B5" t="n">
-        <v>-10.2697286605835</v>
+        <v>-11.79852485656738</v>
       </c>
       <c r="C5" t="n">
-        <v>2.567607164382935</v>
+        <v>-1.972949981689453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8655490875244141</v>
+        <v>6.281956195831299</v>
       </c>
       <c r="B6" t="n">
-        <v>-18.99405670166016</v>
+        <v>-19.22240829467773</v>
       </c>
       <c r="C6" t="n">
-        <v>5.860441207885742</v>
+        <v>-3.653380393981934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.034010887146</v>
+        <v>-1.975251197814941</v>
       </c>
       <c r="B7" t="n">
-        <v>-13.59659099578857</v>
+        <v>-43.3292350769043</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0263729095459</v>
+        <v>0.271059513092041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.544707775115967</v>
+        <v>-20.38084411621094</v>
       </c>
       <c r="B8" t="n">
-        <v>-11.79852485656738</v>
+        <v>-15.68858814239502</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.972949981689453</v>
+        <v>1.961378574371338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.281956195831299</v>
+        <v>10.76584243774414</v>
       </c>
       <c r="B9" t="n">
-        <v>-19.22240829467773</v>
+        <v>-33.70746231079102</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.653380393981934</v>
+        <v>31.38712692260743</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.975251197814941</v>
+        <v>-27.7362232208252</v>
       </c>
       <c r="B10" t="n">
-        <v>-43.3292350769043</v>
+        <v>-0.916855812072754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.271059513092041</v>
+        <v>-10.06494903564453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-20.38084411621094</v>
+        <v>8.33868408203125</v>
       </c>
       <c r="B11" t="n">
-        <v>-15.68858814239502</v>
+        <v>-7.790350914001465</v>
       </c>
       <c r="C11" t="n">
-        <v>1.961378574371338</v>
+        <v>11.65683746337891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.76584243774414</v>
+        <v>-1.120648384094239</v>
       </c>
       <c r="B12" t="n">
-        <v>-33.70746231079102</v>
+        <v>-23.34181785583496</v>
       </c>
       <c r="C12" t="n">
-        <v>31.38712692260743</v>
+        <v>-21.7900619506836</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-27.7362232208252</v>
+        <v>33.84098815917969</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.916855812072754</v>
+        <v>-33.77373504638672</v>
       </c>
       <c r="C13" t="n">
-        <v>-10.06494903564453</v>
+        <v>-8.738304138183594</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.33868408203125</v>
+        <v>-9.054259300231934</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.790350914001465</v>
+        <v>-1.461036801338196</v>
       </c>
       <c r="C14" t="n">
-        <v>11.65683746337891</v>
+        <v>6.970683097839356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.120648384094239</v>
+        <v>10.75043201446533</v>
       </c>
       <c r="B15" t="n">
-        <v>-23.34181785583496</v>
+        <v>-19.06211471557617</v>
       </c>
       <c r="C15" t="n">
-        <v>-21.7900619506836</v>
+        <v>15.70715045928955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>33.84098815917969</v>
+        <v>1.280778884887695</v>
       </c>
       <c r="B16" t="n">
-        <v>-33.77373504638672</v>
+        <v>-11.42607116699219</v>
       </c>
       <c r="C16" t="n">
-        <v>-8.738304138183594</v>
+        <v>-8.684724807739258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-9.054259300231934</v>
+        <v>36.76531219482422</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.461036801338196</v>
+        <v>-8.253963470458984</v>
       </c>
       <c r="C17" t="n">
-        <v>6.970683097839356</v>
+        <v>-22.78386306762696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.75043201446533</v>
+        <v>-36.61545944213867</v>
       </c>
       <c r="B18" t="n">
-        <v>-19.06211471557617</v>
+        <v>-18.09431838989257</v>
       </c>
       <c r="C18" t="n">
-        <v>15.70715045928955</v>
+        <v>3.823569297790527</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.280778884887695</v>
+        <v>18.00795745849609</v>
       </c>
       <c r="B19" t="n">
-        <v>-11.42607116699219</v>
+        <v>-45.09830856323242</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.684724807739258</v>
+        <v>-8.873518943786621</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>36.76531219482422</v>
+        <v>-20.05809783935547</v>
       </c>
       <c r="B20" t="n">
-        <v>-8.253963470458984</v>
+        <v>0.3998336791992187</v>
       </c>
       <c r="C20" t="n">
-        <v>-22.78386306762696</v>
+        <v>3.845695495605469</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-36.61545944213867</v>
+        <v>7.206372261047363</v>
       </c>
       <c r="B21" t="n">
-        <v>-18.09431838989257</v>
+        <v>-20.33248519897461</v>
       </c>
       <c r="C21" t="n">
-        <v>3.823569297790527</v>
+        <v>22.94344902038575</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-10.1914873123169</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-12.15236282348633</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-10.96279335021973</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28.82599258422852</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.167891502380371</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.517308235168457</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-22.66286087036133</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-15.7267017364502</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2342269420623779</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-11.30067539215088</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-54.94432067871094</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17.55831718444824</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-17.29559326171875</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.657787322998047</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.186375617980957</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20.14034080505371</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-19.13811683654785</v>
+      </c>
+      <c r="C27" t="n">
+        <v>23.86569976806641</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>13.2857141494751</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-19.34296989440918</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.264841318130493</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-11.63338565826416</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.394529819488525</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.188831090927124</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-38.69764709472656</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-13.45611763000488</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.173340797424316</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9.269144058227541</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-44.79425811767578</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.448012948036194</v>
       </c>
     </row>
   </sheetData>
